--- a/Python/datasets/Experiments/output/results20241225.xlsx
+++ b/Python/datasets/Experiments/output/results20241225.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebApriori\Python\datasets\Experiments\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{85F6920E-908E-4947-A079-17019FC88AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADE5EF-FC47-4F3B-9B84-5E84805CEFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
   </bookViews>
   <sheets>
     <sheet name="results20241225" sheetId="1" r:id="rId1"/>
@@ -633,13 +633,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -650,48 +649,48 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Έμφαση6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Έμφαση6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Έμφαση6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Εισαγωγή" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Έλεγχος κελιού" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Έμφαση1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Έμφαση2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Έμφαση3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Έμφαση4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Έμφαση5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Έμφαση6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Έξοδος" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Επεξηγηματικό κείμενο" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Επικεφαλίδα 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Κακό" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Καλό" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Ουδέτερο" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Προειδοποιητικό κείμενο" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Σημείωση" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Συνδεδεμένο κελί" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Σύνολο" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Τίτλος" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Υπολογισμός" xfId="11" builtinId="22" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1025,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6786672-0DA8-4A5B-8DAA-4F276EA38086}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,16 +1104,16 @@
       <c r="A4" s="1">
         <v>102</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>11.46</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>30.48</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>11.41</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>13.81</v>
       </c>
       <c r="F4">
@@ -1128,27 +1127,29 @@
       <c r="A5" s="1">
         <v>1001</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>18.989999999999998</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>1019.08</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>17.57</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>139.04</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>10006</v>
+        <v>10007</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="6">
+        <v>147</v>
+      </c>
+      <c r="E6" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1230,16 +1231,16 @@
       <c r="A11" s="1">
         <v>100</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.65</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>2.31</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>0.64</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>0.99</v>
       </c>
       <c r="F11">
@@ -1256,16 +1257,16 @@
       <c r="A12" s="1">
         <v>1001</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>1.99</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>147.54</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>1.7</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>11.67</v>
       </c>
     </row>
@@ -1273,16 +1274,16 @@
       <c r="A13" s="1">
         <v>10154</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>78.44</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>11062.61</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>49.64</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>162.19999999999999</v>
       </c>
     </row>
@@ -1366,16 +1367,16 @@
       <c r="A18" s="1">
         <v>100</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>9.26</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>10.119999999999999</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>9.26</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>17.21</v>
       </c>
       <c r="F18">
@@ -1392,16 +1393,16 @@
       <c r="A19" s="1">
         <v>1000</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>10.26</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>187.34</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>10.19</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>242.96</v>
       </c>
     </row>
@@ -1409,16 +1410,16 @@
       <c r="A20" s="1">
         <v>10000</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>24.3</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>3145.33</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>23.17</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>2846.44</v>
       </c>
     </row>
@@ -1502,16 +1503,16 @@
       <c r="A25" s="1">
         <v>102</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>0.3</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>0.08</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>0.11</v>
       </c>
       <c r="F25">
@@ -1528,16 +1529,16 @@
       <c r="A26" s="1">
         <v>1001</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>0.39</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>0.51</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>0.39</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>1.18</v>
       </c>
     </row>
@@ -1545,16 +1546,16 @@
       <c r="A27" s="1">
         <v>10028</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>9.9700000000000006</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>14.69</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>9.3800000000000008</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>21.89</v>
       </c>
     </row>
@@ -1638,16 +1639,16 @@
       <c r="A32" s="1">
         <v>100</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>1.3</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>1.24</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>1.33</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>2.71</v>
       </c>
       <c r="F32">
@@ -1664,16 +1665,16 @@
       <c r="A33" s="1">
         <v>1003</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>1.49</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>10.91</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>1.48</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>30.34</v>
       </c>
     </row>
@@ -1681,16 +1682,16 @@
       <c r="A34" s="1">
         <v>10015</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>11.93</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>120.19</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>11.64</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>396.82</v>
       </c>
     </row>
@@ -1774,16 +1775,16 @@
       <c r="A39" s="1">
         <v>106</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>0.31</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>0.27</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>0.31</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>0.34</v>
       </c>
       <c r="F39">
@@ -1800,16 +1801,16 @@
       <c r="A40" s="1">
         <v>1008</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>0.41</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>2.83</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>0.39</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>2.63</v>
       </c>
     </row>
@@ -1817,16 +1818,16 @@
       <c r="A41" s="1">
         <v>10011</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>9.4600000000000009</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>33.880000000000003</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>8.1</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>25.81</v>
       </c>
     </row>
@@ -1910,16 +1911,16 @@
       <c r="A46" s="1">
         <v>100</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>1.39</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>1.34</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>1.41</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>2.39</v>
       </c>
       <c r="F46">
@@ -1936,16 +1937,16 @@
       <c r="A47" s="1">
         <v>1000</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>1.81</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>12.62</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>1.76</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <v>29.5</v>
       </c>
     </row>
@@ -1953,16 +1954,16 @@
       <c r="A48" s="1">
         <v>10002</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>12.2</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>220.2</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>10.7</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <v>386.53</v>
       </c>
     </row>
@@ -2046,16 +2047,16 @@
       <c r="A53" s="1">
         <v>101</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>1.04</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>1.04</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="12">
         <v>2.59</v>
       </c>
       <c r="F53">
@@ -2072,16 +2073,16 @@
       <c r="A54" s="1">
         <v>1003</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>1.43</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>17.059999999999999</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>1.51</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="12">
         <v>27.86</v>
       </c>
     </row>
@@ -2089,16 +2090,16 @@
       <c r="A55" s="1">
         <v>10000</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>13.59</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>233.04</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>11.85</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="12">
         <v>321.43</v>
       </c>
     </row>
@@ -2179,19 +2180,19 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="1">
         <v>100</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>0.62</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <v>2.8</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>0.62</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="9">
         <v>2</v>
       </c>
       <c r="F60">
@@ -2208,16 +2209,16 @@
       <c r="A61" s="1">
         <v>1001</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>2.34</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="10">
         <v>38.450000000000003</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>2.02</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="9">
         <v>25.81</v>
       </c>
     </row>
@@ -2225,16 +2226,16 @@
       <c r="A62" s="1">
         <v>10074</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>16.28</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="10">
         <v>135.63999999999999</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>14.34</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="9">
         <v>52.47</v>
       </c>
     </row>
@@ -2312,16 +2313,16 @@
       <c r="A67" s="1">
         <v>100</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>1.47</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="12">
         <v>8.43</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>1.83</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="11">
         <v>6.84</v>
       </c>
       <c r="F67">
@@ -2338,16 +2339,16 @@
       <c r="A68" s="1">
         <v>1000</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>3.57</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="12">
         <v>156.15</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>3.29</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>87.28</v>
       </c>
     </row>
@@ -2355,16 +2356,16 @@
       <c r="A69" s="1">
         <v>10018</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>23.75</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="12">
         <v>1219.9000000000001</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>20.53</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="11">
         <v>251.13</v>
       </c>
     </row>
@@ -2384,6 +2385,15 @@
       <c r="E71" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F71">
+        <v>0.51950383186340299</v>
+      </c>
+      <c r="G71">
+        <v>1.13150215148925</v>
+      </c>
+      <c r="H71">
+        <v>16.723675251006998</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -2400,6 +2410,15 @@
       </c>
       <c r="E72" s="4">
         <v>8.3876000000000003E-3</v>
+      </c>
+      <c r="F72">
+        <v>0.200320243835449</v>
+      </c>
+      <c r="G72">
+        <v>2.37897729873657</v>
+      </c>
+      <c r="H72">
+        <v>25.401316881179799</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2416,33 +2435,72 @@
       <c r="E73" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F73">
+        <v>0.55365228652954102</v>
+      </c>
+      <c r="G73">
+        <v>2.4180223941802899</v>
+      </c>
+      <c r="H73">
+        <v>13.807211875915501</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>101</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="B74" s="9">
+        <v>0.51950383186340299</v>
+      </c>
+      <c r="C74" s="6">
+        <v>0.200320243835449</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0.55365228652954102</v>
+      </c>
+      <c r="E74" s="8">
+        <v>0.21886396408080999</v>
+      </c>
+      <c r="F74">
+        <v>0.21886396408080999</v>
+      </c>
+      <c r="G74">
+        <v>1.70612168312072</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1022</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="B75" s="6">
+        <v>1.13150215148925</v>
+      </c>
+      <c r="C75" s="9">
+        <v>2.37897729873657</v>
+      </c>
+      <c r="D75" s="10">
+        <v>2.4180223941802899</v>
+      </c>
+      <c r="E75" s="8">
+        <v>1.70612168312072</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>10540</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="B76" s="8">
+        <v>16.723675251006998</v>
+      </c>
+      <c r="C76" s="10">
+        <v>25.401316881179799</v>
+      </c>
+      <c r="D76" s="6">
+        <v>13.807211875915501</v>
+      </c>
+      <c r="E76" s="9">
+        <v>19.714059352874699</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -2460,6 +2518,15 @@
       <c r="E78" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F78">
+        <v>0.98995995521545399</v>
+      </c>
+      <c r="G78">
+        <v>1.12210440635681</v>
+      </c>
+      <c r="H78">
+        <v>9.6911036968231201</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -2476,6 +2543,15 @@
       </c>
       <c r="E79" s="4">
         <v>0.80584</v>
+      </c>
+      <c r="F79">
+        <v>2.74495530128479</v>
+      </c>
+      <c r="G79">
+        <v>8.3141276836395193</v>
+      </c>
+      <c r="H79">
+        <v>49.633655548095703</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2492,27 +2568,75 @@
       <c r="E80" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="F80">
+        <v>0.96733808517455999</v>
+      </c>
+      <c r="G80">
+        <v>1.1073670387268</v>
+      </c>
+      <c r="H80">
+        <v>8.48066902160644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>100</v>
+      </c>
+      <c r="B81" s="8">
+        <v>0.98995995521545399</v>
+      </c>
+      <c r="C81" s="9">
+        <v>2.74495530128479</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.96733808517455999</v>
+      </c>
+      <c r="E81" s="10">
+        <v>4.9966049194335902</v>
+      </c>
+      <c r="F81">
+        <v>4.9966049194335902</v>
+      </c>
+      <c r="G81">
+        <v>31.1707007884979</v>
+      </c>
+      <c r="H81">
+        <v>220.480873584747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B82" s="8">
+        <v>1.12210440635681</v>
+      </c>
+      <c r="C82" s="9">
+        <v>8.3141276836395193</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1.1073670387268</v>
+      </c>
+      <c r="E82" s="10">
+        <v>31.1707007884979</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>10034</v>
+      </c>
+      <c r="B83" s="8">
+        <v>9.6911036968231201</v>
+      </c>
+      <c r="C83" s="9">
+        <v>49.633655548095703</v>
+      </c>
+      <c r="D83" s="6">
+        <v>8.48066902160644</v>
+      </c>
+      <c r="E83" s="10">
+        <v>220.480873584747</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/datasets/Experiments/output/results20241225.xlsx
+++ b/Python/datasets/Experiments/output/results20241225.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ADE5EF-FC47-4F3B-9B84-5E84805CEFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83060DCC-280A-455B-9FA5-CCC745F4B1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6035C6A1-F9DE-48BD-AD3B-5A2CA49F8B6B}"/>
   </bookViews>
   <sheets>
     <sheet name="results20241225" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="23">
   <si>
     <t>Dataset</t>
   </si>
@@ -79,10 +90,16 @@
     <t>T40I10D100K</t>
   </si>
   <si>
-    <t>1_L-0023</t>
+    <t>T16IT20D100K</t>
   </si>
   <si>
-    <t>T16IT20D100K</t>
+    <t>L-0023</t>
+  </si>
+  <si>
+    <t>Running time (including initial read)</t>
+  </si>
+  <si>
+    <t>Peak memory consuption (including initial read)</t>
   </si>
 </sst>
 </file>
@@ -93,7 +110,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +263,14 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -458,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -588,6 +613,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -633,7 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -647,6 +681,12 @@
     <xf numFmtId="2" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Έμφαση1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1022,1623 +1062,2629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6786672-0DA8-4A5B-8DAA-4F276EA38086}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="15" max="17" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="J1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>11.4580009</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>18.990603920000002</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="13">
+        <v>70.1875</v>
+      </c>
+      <c r="P2" s="13">
+        <v>221.05078125</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>2652.7578125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>990002</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>41270</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>8.1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>30.47776318</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>1019.08032</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2">
+        <v>990002</v>
+      </c>
+      <c r="L3" s="2">
+        <v>41270</v>
+      </c>
+      <c r="M3" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="O3" s="13">
+        <v>375.9921875</v>
+      </c>
+      <c r="P3" s="13">
+        <v>3728.88671875</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>124.5078125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>11.407485960000001</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>17.569320680000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="13">
+        <v>69.265625</v>
+      </c>
+      <c r="P4" s="13">
+        <v>220.92578125</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>2652.66015625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>102</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B5" s="7">
         <v>11.46</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="12">
         <v>30.48</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="5">
         <v>11.41</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E5" s="11">
         <v>13.81</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>13.80931187</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>139.04322769999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="J5" s="1">
+        <v>102</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="13">
+        <v>83.640625</v>
+      </c>
+      <c r="P5" s="13">
+        <v>127.28125</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>124.43359375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1001</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6" s="7">
         <v>18.989999999999998</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C6" s="12">
         <v>1019.08</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <v>17.57</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="11">
         <v>139.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="J6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>10007</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="6">
-        <v>147</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="7">
+        <v>186.08</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6">
+        <v>144.38</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="J7" s="1">
+        <v>10007</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.64699006100000001</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>1.9919815059999999</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>78.438091040000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>88162</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>16471</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>11.3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>6.8999999999999997E-4</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>2.3075399399999998</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>147.53961870000001</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>11062.61346</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="2">
+        <v>88162</v>
+      </c>
+      <c r="L10" s="2">
+        <v>16471</v>
+      </c>
+      <c r="M10" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>6.8999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.64395952199999995</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>1.7049837109999999</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>49.642160179999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B12" s="8">
         <v>0.65</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C12" s="10">
         <v>2.31</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>0.64</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>0.99</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.98768448799999997</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>11.665897129999999</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>162.19632240000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="J12" s="1">
+        <v>100</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>1001</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="8">
         <v>1.99</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C13" s="10">
         <v>147.54</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>1.7</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>11.67</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="J13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>10154</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>78.44</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C14" s="10">
         <v>11062.61</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>49.64</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>162.19999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="J14" s="1">
+        <v>10154</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>9.2629890439999993</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>10.260763170000001</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>24.295959710000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="13">
+        <v>29.43359375</v>
+      </c>
+      <c r="P16" s="13">
+        <v>131.6171875</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>896.578125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>340183</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>469</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>34.799999999999997</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>7.4219999999999994E-2</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>10.1191721</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>187.33879110000001</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>3145.325593</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="J17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>340183</v>
+      </c>
+      <c r="L17" s="2">
+        <v>469</v>
+      </c>
+      <c r="M17" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="N17" s="2">
+        <v>7.4219999999999994E-2</v>
+      </c>
+      <c r="O17" s="13">
+        <v>159.38671875</v>
+      </c>
+      <c r="P17" s="13">
+        <v>4815.5625</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>117.671875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>9.2585380080000004</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>10.19357085</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>23.173106430000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="13">
+        <v>29.07421875</v>
+      </c>
+      <c r="P18" s="13">
+        <v>127.6875</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>798.39453125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>100</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>9.26</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>10.119999999999999</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>9.26</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <v>17.21</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>17.211249110000001</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>242.9636874</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>2846.4394649999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="J19" s="1">
+        <v>100</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="13">
+        <v>286.9375</v>
+      </c>
+      <c r="P19" s="13">
+        <v>1851.359375</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1505.984375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>1000</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="7">
         <v>10.26</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="11">
         <v>187.34</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>10.19</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>242.96</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="J20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>10000</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B21" s="7">
         <v>24.3</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C21" s="12">
         <v>3145.33</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <v>23.17</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>2846.44</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="J21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>9.9735534189999999</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>0.38903188700000002</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>0.30148673100000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="J23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="13">
+        <v>11.01953125</v>
+      </c>
+      <c r="P23" s="13">
+        <v>13.2265625</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>28.9609375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>3196</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>75</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>37</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>0.49332999999999999</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>14.68568325</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>0.50502681699999996</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>7.5832604999999997E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
+      <c r="J24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3196</v>
+      </c>
+      <c r="L24" s="2">
+        <v>75</v>
+      </c>
+      <c r="M24" s="2">
+        <v>37</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.49332999999999999</v>
+      </c>
+      <c r="O24" s="13">
+        <v>11.70703125</v>
+      </c>
+      <c r="P24" s="13">
+        <v>29.95703125</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>194.1328125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>9.3826022150000004</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>0.399008274</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>0.29013657599999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="13">
+        <v>10.9765625</v>
+      </c>
+      <c r="P25" s="13">
+        <v>13.1171875</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>28.9375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>102</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B26" s="10">
         <v>0.3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <v>0.08</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>0.11</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>21.892164950000002</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>1.184161901</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>0.110022306</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="J26" s="1">
+        <v>102</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="13">
+        <v>14.640625</v>
+      </c>
+      <c r="P26" s="13">
+        <v>38.703125</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>214.5390625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>1001</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B27" s="6">
         <v>0.39</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C27" s="9">
         <v>0.51</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>0.39</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="J27" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>10028</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="8">
         <v>9.9700000000000006</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="9">
         <v>14.69</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>9.3800000000000008</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>21.89</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="J28" s="1">
+        <v>10028</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>1.304352999</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>1.4898402690000001</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>11.92729735</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="J30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" s="13">
+        <v>15.87109375</v>
+      </c>
+      <c r="P30" s="13">
+        <v>31.67578125</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>195.07421875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2">
         <v>67557</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>129</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>43</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="2">
         <v>0.33333000000000002</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>1.241001368</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>10.906613350000001</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>120.1854424</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+      <c r="J31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="2">
+        <v>67557</v>
+      </c>
+      <c r="L31" s="2">
+        <v>129</v>
+      </c>
+      <c r="M31" s="2">
+        <v>43</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="O31" s="13">
+        <v>40.83203125</v>
+      </c>
+      <c r="P31" s="13">
+        <v>631.9453125</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>5468.89453125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>1.3323745730000001</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>1.4759783740000001</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>11.643638129999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="13">
+        <v>15.76171875</v>
+      </c>
+      <c r="P32" s="13">
+        <v>31.82421875</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>194.27734375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>100</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B33" s="8">
         <v>1.3</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C33" s="6">
         <v>1.24</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>1.33</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>2.71</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>2.7062277789999998</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>30.343329669999999</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>396.81844380000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="J33" s="1">
+        <v>100</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="13">
+        <v>93.78125</v>
+      </c>
+      <c r="P33" s="13">
+        <v>657.50390625</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>5223.9453125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>1003</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B34" s="8">
         <v>1.49</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C34" s="9">
         <v>10.91</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>1.48</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>30.34</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="J34" s="1">
+        <v>1003</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>10015</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B35" s="8">
         <v>11.93</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C35" s="9">
         <v>120.19</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>11.64</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>396.82</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="J35" s="1">
+        <v>10015</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>0.30600237800000002</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>0.40629482300000003</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>9.4608156680000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="J37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="13">
+        <v>11.45703125</v>
+      </c>
+      <c r="P37" s="13">
+        <v>13.4140625</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>36.06640625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2">
         <v>8124</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>119</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D38" s="2">
         <v>23</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E38" s="2">
         <v>0.12328</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>0.267298698</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>2.8275332450000001</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>33.883575200000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
+      <c r="J38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="2">
+        <v>8124</v>
+      </c>
+      <c r="L38" s="2">
+        <v>119</v>
+      </c>
+      <c r="M38" s="2">
+        <v>23</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.12328</v>
+      </c>
+      <c r="O38" s="13">
+        <v>15.31640625</v>
+      </c>
+      <c r="P38" s="13">
+        <v>71.2890625</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>394.37890625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>0.31196045900000002</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>0.38998770700000002</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>8.0967750550000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" s="13">
+        <v>11.35546875</v>
+      </c>
+      <c r="P39" s="13">
+        <v>13.33203125</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>32.57421875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>106</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B40" s="7">
         <v>0.31</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C40" s="5">
         <v>0.27</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D40" s="7">
         <v>0.31</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>0.34</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>0.33999633800000001</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>2.6276664730000001</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>25.806482320000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="J40" s="1">
+        <v>106</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="13">
+        <v>15.05859375</v>
+      </c>
+      <c r="P40" s="13">
+        <v>35.09375</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>150.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>1008</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B41" s="7">
         <v>0.41</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C41" s="12">
         <v>2.83</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D41" s="5">
         <v>0.39</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>2.63</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="J41" s="1">
+        <v>1008</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>10011</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B42" s="7">
         <v>9.4600000000000009</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C42" s="12">
         <v>33.880000000000003</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>8.1</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>25.81</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="J42" s="1">
+        <v>10011</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>1.393504858</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>1.808299541</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>12.20122933</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="J44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B45" s="2">
         <v>49046</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="2">
         <v>2113</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <v>74</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E45" s="2">
         <v>3.5020000000000003E-2</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>1.3437931540000001</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>12.61831975</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>220.19557710000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+      <c r="J45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="2">
+        <v>49046</v>
+      </c>
+      <c r="L45" s="2">
+        <v>2113</v>
+      </c>
+      <c r="M45" s="2">
+        <v>74</v>
+      </c>
+      <c r="N45" s="2">
+        <v>3.5020000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>1.408010244</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>1.764765978</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>10.699888229999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>100</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B47" s="7">
         <v>1.39</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C47" s="5">
         <v>1.34</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>1.41</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="12">
         <v>2.39</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>2.3920953269999998</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>29.49729919</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <v>386.52529140000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="J47" s="1">
+        <v>100</v>
+      </c>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>1000</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B48" s="7">
         <v>1.81</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C48" s="11">
         <v>12.62</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D48" s="5">
         <v>1.76</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="J48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>10002</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B49" s="7">
         <v>12.2</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C49" s="11">
         <v>220.2</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D49" s="5">
         <v>10.7</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>386.53</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="J49" s="1">
+        <v>10002</v>
+      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>1.043045282</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>1.4317560199999999</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>13.59183311</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="J51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="2">
         <v>49046</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>2089</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D52" s="2">
         <v>51.5</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E52" s="2">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>2.0268087389999998</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>17.06225014</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>233.03910160000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
+      <c r="J52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="2">
+        <v>49046</v>
+      </c>
+      <c r="L52" s="2">
+        <v>2089</v>
+      </c>
+      <c r="M52" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="N52" s="2">
+        <v>2.4639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>1.0410690309999999</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>1.5140118600000001</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>11.845885040000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>101</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B54" s="5">
         <v>1.04</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C54" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D54" s="5">
         <v>1.04</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E54" s="12">
         <v>2.59</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>2.5911107059999998</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>27.86059904</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>321.4320414</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="J54" s="1">
+        <v>101</v>
+      </c>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>1003</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B55" s="5">
         <v>1.43</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C55" s="11">
         <v>17.059999999999999</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D55" s="7">
         <v>1.51</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E55" s="12">
         <v>27.86</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="J55" s="1">
+        <v>1003</v>
+      </c>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>10000</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B56" s="7">
         <v>13.59</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C56" s="11">
         <v>233.04</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D56" s="5">
         <v>11.85</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>321.43</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="J56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>0.62399721100000005</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>2.3395984169999999</v>
       </c>
-      <c r="H57">
+      <c r="H58">
         <v>16.276000740000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="J58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2">
         <v>100000</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>871</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D59" s="2">
         <v>11.1</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E59" s="2">
         <v>1.2749999999999999E-2</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <v>2.7986097339999998</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>38.447949889999997</v>
       </c>
-      <c r="H58">
+      <c r="H59">
         <v>135.6412292</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
+      <c r="J59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L59" s="2">
+        <v>871</v>
+      </c>
+      <c r="M59" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1.2749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <v>0.62348437300000004</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <v>2.022633076</v>
       </c>
-      <c r="H59">
+      <c r="H60">
         <v>14.344032049999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="J60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>100</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B61" s="6">
         <v>0.62</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C61" s="10">
         <v>2.8</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>0.62</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>2</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <v>2.0030653479999998</v>
       </c>
-      <c r="G60">
+      <c r="G61">
         <v>25.811674360000001</v>
       </c>
-      <c r="H60">
+      <c r="H61">
         <v>52.471539020000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="J61" s="1">
+        <v>100</v>
+      </c>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>1001</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B62" s="8">
         <v>2.34</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C62" s="10">
         <v>38.450000000000003</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>2.02</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>25.81</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="J62" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>10074</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B63" s="8">
         <v>16.28</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C63" s="10">
         <v>135.63999999999999</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>14.34</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>52.47</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="J63" s="1">
+        <v>10074</v>
+      </c>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>1.474997997</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <v>3.5651082989999998</v>
       </c>
-      <c r="H64">
+      <c r="H65">
         <v>23.74735355</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="J65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B66" s="2">
         <v>100000</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66">
         <v>8.4281592369999991</v>
       </c>
-      <c r="G65">
+      <c r="G66">
         <v>156.14546540000001</v>
       </c>
-      <c r="H65">
+      <c r="H66">
         <v>1219.8993390000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
+      <c r="J66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>1.8316054340000001</v>
       </c>
-      <c r="G66">
+      <c r="G67">
         <v>3.28516078</v>
       </c>
-      <c r="H66">
+      <c r="H67">
         <v>20.533318999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="J67" s="2"/>
+      <c r="K67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>100</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B68" s="5">
         <v>1.47</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C68" s="12">
         <v>8.43</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D68" s="7">
         <v>1.83</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>6.84</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <v>6.8369991780000001</v>
       </c>
-      <c r="G67">
+      <c r="G68">
         <v>87.277559519999997</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>251.13257909999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="J68" s="1">
+        <v>100</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>1000</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B69" s="7">
         <v>3.57</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C69" s="12">
         <v>156.15</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="5">
         <v>3.29</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>87.28</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="J69" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>10018</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B70" s="7">
         <v>23.75</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C70" s="12">
         <v>1219.9000000000001</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D70" s="5">
         <v>20.53</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>251.13</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="J70" s="1">
+        <v>10018</v>
+      </c>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <v>0.51950383186340299</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <v>1.13150215148925</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <v>16.723675251006998</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="J72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="13">
+        <v>11.23828125</v>
+      </c>
+      <c r="P72" s="13">
+        <v>12.84765625</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>32.359375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3587</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2160</v>
+      </c>
+      <c r="D73" s="3">
+        <v>18.12</v>
+      </c>
+      <c r="E73" s="4">
+        <v>8.3876000000000003E-3</v>
+      </c>
+      <c r="F73">
+        <v>0.200320243835449</v>
+      </c>
+      <c r="G73">
+        <v>2.37897729873657</v>
+      </c>
+      <c r="H73">
+        <v>25.401316881179799</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="2">
+        <v>3587</v>
+      </c>
+      <c r="L73" s="2">
+        <v>2160</v>
+      </c>
+      <c r="M73" s="3">
+        <v>18.12</v>
+      </c>
+      <c r="N73" s="4">
+        <v>8.3876000000000003E-3</v>
+      </c>
+      <c r="O73" s="13">
+        <v>11.1953125</v>
+      </c>
+      <c r="P73" s="13">
+        <v>13.44140625</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>79.7421875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>0.55365228652954102</v>
+      </c>
+      <c r="G74">
+        <v>2.4180223941802899</v>
+      </c>
+      <c r="H74">
+        <v>13.807211875915501</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O74" s="13">
+        <v>11.2421875</v>
+      </c>
+      <c r="P74" s="13">
+        <v>12.7890625</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>30.828125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>101</v>
+      </c>
+      <c r="B75" s="9">
+        <v>0.51950383186340299</v>
+      </c>
+      <c r="C75" s="6">
+        <v>0.200320243835449</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.55365228652954102</v>
+      </c>
+      <c r="E75" s="8">
+        <v>0.21886396408080999</v>
+      </c>
+      <c r="F75">
+        <v>0.21886396408080999</v>
+      </c>
+      <c r="G75">
+        <v>1.70612168312072</v>
+      </c>
+      <c r="J75" s="1">
+        <v>101</v>
+      </c>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="13">
+        <v>11.07421875</v>
+      </c>
+      <c r="P75" s="13">
+        <v>11.74609375</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>21.77734375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B76" s="6">
+        <v>1.13150215148925</v>
+      </c>
+      <c r="C76" s="9">
+        <v>2.37897729873657</v>
+      </c>
+      <c r="D76" s="10">
+        <v>2.4180223941802899</v>
+      </c>
+      <c r="E76" s="8">
+        <v>1.70612168312072</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1022</v>
+      </c>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>10540</v>
+      </c>
+      <c r="B77" s="8">
+        <v>16.723675251006998</v>
+      </c>
+      <c r="C77" s="10">
+        <v>25.401316881179799</v>
+      </c>
+      <c r="D77" s="6">
+        <v>13.807211875915501</v>
+      </c>
+      <c r="E77" s="9">
+        <v>19.714059352874699</v>
+      </c>
+      <c r="J77" s="1">
+        <v>10540</v>
+      </c>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>0.98995995521545399</v>
+      </c>
+      <c r="G79">
+        <v>1.12210440635681</v>
+      </c>
+      <c r="H79">
+        <v>9.6911036968231201</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="2">
-        <v>3587</v>
-      </c>
-      <c r="C72" s="2">
-        <v>2160</v>
-      </c>
-      <c r="D72" s="3">
-        <v>18.12</v>
-      </c>
-      <c r="E72" s="4">
-        <v>8.3876000000000003E-3</v>
-      </c>
-      <c r="F72">
-        <v>0.200320243835449</v>
-      </c>
-      <c r="G72">
-        <v>2.37897729873657</v>
-      </c>
-      <c r="H72">
-        <v>25.401316881179799</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2" t="s">
+      <c r="B80" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C80" s="2">
+        <v>20</v>
+      </c>
+      <c r="D80" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.80584</v>
+      </c>
+      <c r="F80">
+        <v>2.74495530128479</v>
+      </c>
+      <c r="G80">
+        <v>8.3141276836395193</v>
+      </c>
+      <c r="H80">
+        <v>49.633655548095703</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="2">
+        <v>100000</v>
+      </c>
+      <c r="L80" s="2">
+        <v>20</v>
+      </c>
+      <c r="M80" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N80" s="4">
+        <v>0.80584</v>
+      </c>
+      <c r="O80" s="13"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F73">
-        <v>0.55365228652954102</v>
-      </c>
-      <c r="G73">
-        <v>2.4180223941802899</v>
-      </c>
-      <c r="H73">
-        <v>13.807211875915501</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>101</v>
-      </c>
-      <c r="B74" s="9">
-        <v>0.51950383186340299</v>
-      </c>
-      <c r="C74" s="6">
-        <v>0.200320243835449</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0.55365228652954102</v>
-      </c>
-      <c r="E74" s="8">
-        <v>0.21886396408080999</v>
-      </c>
-      <c r="F74">
-        <v>0.21886396408080999</v>
-      </c>
-      <c r="G74">
-        <v>1.70612168312072</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>1022</v>
-      </c>
-      <c r="B75" s="6">
-        <v>1.13150215148925</v>
-      </c>
-      <c r="C75" s="9">
-        <v>2.37897729873657</v>
-      </c>
-      <c r="D75" s="10">
-        <v>2.4180223941802899</v>
-      </c>
-      <c r="E75" s="8">
-        <v>1.70612168312072</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>10540</v>
-      </c>
-      <c r="B76" s="8">
-        <v>16.723675251006998</v>
-      </c>
-      <c r="C76" s="10">
-        <v>25.401316881179799</v>
-      </c>
-      <c r="D76" s="6">
-        <v>13.807211875915501</v>
-      </c>
-      <c r="E76" s="9">
-        <v>19.714059352874699</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78">
+      <c r="F81">
+        <v>0.96733808517455999</v>
+      </c>
+      <c r="G81">
+        <v>1.1073670387268</v>
+      </c>
+      <c r="H81">
+        <v>8.48066902160644</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O81" s="13"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>100</v>
+      </c>
+      <c r="B82" s="8">
         <v>0.98995995521545399</v>
       </c>
-      <c r="G78">
+      <c r="C82" s="9">
+        <v>2.74495530128479</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0.96733808517455999</v>
+      </c>
+      <c r="E82" s="10">
+        <v>4.9966049194335902</v>
+      </c>
+      <c r="F82">
+        <v>4.9966049194335902</v>
+      </c>
+      <c r="G82">
+        <v>31.1707007884979</v>
+      </c>
+      <c r="H82">
+        <v>220.480873584747</v>
+      </c>
+      <c r="J82" s="1">
+        <v>100</v>
+      </c>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="13"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B83" s="8">
         <v>1.12210440635681</v>
       </c>
-      <c r="H78">
+      <c r="C83" s="9">
+        <v>8.3141276836395193</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1.1073670387268</v>
+      </c>
+      <c r="E83" s="10">
+        <v>31.1707007884979</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1003</v>
+      </c>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="13"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>10034</v>
+      </c>
+      <c r="B84" s="8">
         <v>9.6911036968231201</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="2">
-        <v>100000</v>
-      </c>
-      <c r="C79" s="2">
-        <v>20</v>
-      </c>
-      <c r="D79" s="3">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E79" s="4">
-        <v>0.80584</v>
-      </c>
-      <c r="F79">
-        <v>2.74495530128479</v>
-      </c>
-      <c r="G79">
-        <v>8.3141276836395193</v>
-      </c>
-      <c r="H79">
+      <c r="C84" s="9">
         <v>49.633655548095703</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80">
-        <v>0.96733808517455999</v>
-      </c>
-      <c r="G80">
-        <v>1.1073670387268</v>
-      </c>
-      <c r="H80">
+      <c r="D84" s="6">
         <v>8.48066902160644</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>100</v>
-      </c>
-      <c r="B81" s="8">
-        <v>0.98995995521545399</v>
-      </c>
-      <c r="C81" s="9">
-        <v>2.74495530128479</v>
-      </c>
-      <c r="D81" s="6">
-        <v>0.96733808517455999</v>
-      </c>
-      <c r="E81" s="10">
-        <v>4.9966049194335902</v>
-      </c>
-      <c r="F81">
-        <v>4.9966049194335902</v>
-      </c>
-      <c r="G81">
-        <v>31.1707007884979</v>
-      </c>
-      <c r="H81">
+      <c r="E84" s="10">
         <v>220.480873584747</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B82" s="8">
-        <v>1.12210440635681</v>
-      </c>
-      <c r="C82" s="9">
-        <v>8.3141276836395193</v>
-      </c>
-      <c r="D82" s="6">
-        <v>1.1073670387268</v>
-      </c>
-      <c r="E82" s="10">
-        <v>31.1707007884979</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="J84" s="1">
         <v>10034</v>
       </c>
-      <c r="B83" s="8">
-        <v>9.6911036968231201</v>
-      </c>
-      <c r="C83" s="9">
-        <v>49.633655548095703</v>
-      </c>
-      <c r="D83" s="6">
-        <v>8.48066902160644</v>
-      </c>
-      <c r="E83" s="10">
-        <v>220.480873584747</v>
-      </c>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
